--- a/WorkTime.xlsx
+++ b/WorkTime.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Начало</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>10.00</t>
+  </si>
+  <si>
+    <t>14.00</t>
   </si>
 </sst>
 </file>
@@ -367,7 +370,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +448,9 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/WorkTime.xlsx
+++ b/WorkTime.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Начало</t>
   </si>
@@ -374,9 +375,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
@@ -442,6 +440,9 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
